--- a/项目总结/打分表.xlsx
+++ b/项目总结/打分表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A9099-4602-4823-9E11-4A0C977282CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>评分项名称</t>
   </si>
@@ -78,13 +77,113 @@
   </si>
   <si>
     <t>上台发言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上台发言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷调查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDL设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个模块的实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个文档的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善总体设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目可行性阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改可行性计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性报告完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,19 +554,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,95 +592,349 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A42:E42"/>
+  <mergeCells count="8">
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目总结/打分表.xlsx
+++ b/项目总结/打分表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2728A66-E28E-4F92-8A05-32FEE8C07147}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,170 +34,164 @@
     <t>吴帅毅</t>
   </si>
   <si>
-    <t>分值</t>
-  </si>
-  <si>
     <t>项目介绍阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目设计阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目需求分析阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目计划阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目实现阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目测试阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目总结阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资料查找</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PPT制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文档编写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上台发言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PPT制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上台发言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问卷调查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>界面制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PDL设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改项目简介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改项目计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改项目设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单元测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集成测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>框架搭建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>各个模块的实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>各个文档的修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>框架搭建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完善计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求分析框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求分析完善</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总体设计框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完善总体设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目可行性阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改可行性计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可行性框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可行性报告完善</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,16 +201,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,60 +259,89 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="计算" xfId="3" builtinId="22"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,389 +618,548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/项目总结/打分表.xlsx
+++ b/项目总结/打分表.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2728A66-E28E-4F92-8A05-32FEE8C07147}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2503BE-BCE9-4A3C-B5E9-CCADCCEA9DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>评分项名称</t>
   </si>
@@ -42,143 +47,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目计划阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实现阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目测试阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上台发言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上台发言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDL设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个模块的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个文档的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善总体设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目可行性阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改可行性计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性报告完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：负责做必有1分，2分为良好，3分为优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>项目需求分析阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目计划阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目实现阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目测试阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目总结阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上台发言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上台发言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDL设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改项目简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改项目计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改项目设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个模块的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个文档的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善总体设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目可行性阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改可行性计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可行性框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可行性报告完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
+  </si>
+  <si>
+    <t>分数占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +233,32 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -323,9 +361,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,7 +374,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,519 +690,800 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
+      <c r="A58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2">
+        <f>SUM(B59:B63,B51:B57,B44:B49,B35:B42,B26:B33,B18:B24,B9:B16,B3:B7)</f>
+        <v>67</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" ref="C64:D64" si="0">SUM(C59:C63,C51:C57,C44:C49,C35:C42,C26:C33,C18:C24,C9:C16,C3:C7)</f>
+        <v>65</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <f>B64/SUM(B64:D64)</f>
+        <v>0.34183673469387754</v>
+      </c>
+      <c r="C65">
+        <f>C64/SUM(B64:D64)</f>
+        <v>0.33163265306122447</v>
+      </c>
+      <c r="D65">
+        <f>D64/SUM(B64:D64)</f>
+        <v>0.32653061224489793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A66:D66"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
